--- a/swing_strategy_vix_sim_20260107.xlsx
+++ b/swing_strategy_vix_sim_20260107.xlsx
@@ -571,7 +571,7 @@
         <v>183.07</v>
       </c>
       <c r="G2" t="n">
-        <v>90.98</v>
+        <v>91.05</v>
       </c>
       <c r="H2" t="n">
         <v>192.28</v>
@@ -649,7 +649,7 @@
         <v>350.57</v>
       </c>
       <c r="G3" t="n">
-        <v>83.33</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>350.57</v>
@@ -727,7 +727,7 @@
         <v>162.87</v>
       </c>
       <c r="G4" t="n">
-        <v>78.17</v>
+        <v>78.20999999999999</v>
       </c>
       <c r="H4" t="n">
         <v>162.87</v>
@@ -805,7 +805,7 @@
         <v>85.23</v>
       </c>
       <c r="G5" t="n">
-        <v>97.47</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>86.44</v>
@@ -865,136 +865,132 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>107.16</v>
+        <v>47.74</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>105.12 - 106.09</t>
+          <t>46.89 - 47.26</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102.05</v>
+        <v>45.62</v>
       </c>
       <c r="F6" t="n">
-        <v>98.90000000000001</v>
+        <v>43.2</v>
       </c>
       <c r="G6" t="n">
-        <v>95.22</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>102.05</v>
+        <v>45.62</v>
       </c>
       <c r="I6" t="n">
-        <v>128.59</v>
+        <v>57.29</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0.99</v>
+        <v>1.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.08</v>
+        <v>1.76</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="N6" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1091262981</v>
+        <v>1687433930</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>0.27</v>
       </c>
       <c r="R6" t="n">
-        <v>119088422912</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
+        <v>79010889728</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>明确吸筹(最强)</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>3440923.55</v>
+        <v>5627639.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1422241.26</v>
+        <v>1827531.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORLA</t>
+          <t>CDE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.09</v>
+        <v>19.63</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.67 - 13.95</t>
+          <t>18.95 - 19.43</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.05</v>
+        <v>17.93</v>
       </c>
       <c r="F7" t="n">
-        <v>13.05</v>
+        <v>17.71</v>
       </c>
       <c r="G7" t="n">
-        <v>91.90000000000001</v>
+        <v>96.56</v>
       </c>
       <c r="H7" t="n">
-        <v>13.05</v>
+        <v>17.93</v>
       </c>
       <c r="I7" t="n">
-        <v>16.91</v>
+        <v>23.56</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.33</v>
+        <v>4.47</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>2.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.77</v>
+        <v>0.77</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O7" t="n">
-        <v>339896220</v>
+        <v>642106588</v>
       </c>
       <c r="P7" t="n">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.74</v>
+        <v>0.33</v>
       </c>
       <c r="R7" t="n">
-        <v>4753448448</v>
+        <v>12606482432</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1007,10 +1003,10 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>2072023.6</v>
+        <v>627391.05</v>
       </c>
       <c r="V7" t="n">
-        <v>474315.07</v>
+        <v>1303970.03</v>
       </c>
     </row>
     <row r="8">
@@ -1021,58 +1017,58 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TFPM</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33.92</v>
+        <v>107.16</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33.17 - 33.59</t>
+          <t>105.12 - 106.09</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.04</v>
+        <v>102.05</v>
       </c>
       <c r="F8" t="n">
-        <v>32.04</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>91.20999999999999</v>
+        <v>95.39</v>
       </c>
       <c r="H8" t="n">
-        <v>32.04</v>
+        <v>102.05</v>
       </c>
       <c r="I8" t="n">
-        <v>40.71</v>
+        <v>128.59</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="L8" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="M8" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="O8" t="n">
-        <v>206561506</v>
+        <v>1091262981</v>
       </c>
       <c r="P8" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>7185598976</v>
+        <v>119088422912</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1081,14 +1077,14 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>资金分歧(内强外弱)</t>
+          <t>明确吸筹(最强)</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>46213.1</v>
+        <v>3440923.55</v>
       </c>
       <c r="V8" t="n">
-        <v>-92605.63</v>
+        <v>1422241.26</v>
       </c>
     </row>
     <row r="9">
@@ -1099,152 +1095,152 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>ORLA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>432.23</v>
+        <v>14.09</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>421.61 - 427.90</t>
+          <t>13.67 - 13.95</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>405.68</v>
+        <v>13.05</v>
       </c>
       <c r="F9" t="n">
-        <v>405.68</v>
+        <v>13.05</v>
       </c>
       <c r="G9" t="n">
-        <v>90.13</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>405.68</v>
+        <v>13.05</v>
       </c>
       <c r="I9" t="n">
-        <v>518.67</v>
+        <v>16.91</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0.78</v>
+        <v>1.33</v>
       </c>
       <c r="L9" t="n">
-        <v>0.61</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>0.55</v>
+        <v>1.77</v>
       </c>
       <c r="N9" t="n">
-        <v>0.68</v>
+        <v>0.1</v>
       </c>
       <c r="O9" t="n">
-        <v>116947000</v>
+        <v>339896220</v>
       </c>
       <c r="P9" t="n">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09</v>
+        <v>0.74</v>
       </c>
       <c r="R9" t="n">
-        <v>93919256576</v>
+        <v>4753448448</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>趋势结束(最弱)</t>
+          <t>明确吸筹(最强)</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>-946178.4</v>
+        <v>2072023.6</v>
       </c>
       <c r="V9" t="n">
-        <v>-1667433.35</v>
+        <v>474315.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>TFPM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>314.24</v>
+        <v>33.92</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>310.51 - 311.10</t>
+          <t>33.17 - 33.59</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>304.92</v>
+        <v>32.04</v>
       </c>
       <c r="F10" t="n">
-        <v>304.92</v>
+        <v>32.04</v>
       </c>
       <c r="G10" t="n">
-        <v>89.43000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="H10" t="n">
-        <v>304.92</v>
+        <v>32.04</v>
       </c>
       <c r="I10" t="n">
-        <v>377.09</v>
+        <v>40.71</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>0.33</v>
+        <v>1.09</v>
       </c>
       <c r="L10" t="n">
-        <v>0.35</v>
+        <v>1.04</v>
       </c>
       <c r="M10" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="N10" t="n">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="O10" t="n">
-        <v>5407000000</v>
+        <v>206561506</v>
       </c>
       <c r="P10" t="n">
-        <v>0.61</v>
+        <v>0.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="R10" t="n">
-        <v>3792366469120</v>
+        <v>7185598976</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>价格拉升但量未确认</t>
+          <t>资金分歧(内强外弱)</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>-143531.3</v>
+        <v>46213.1</v>
       </c>
       <c r="V10" t="n">
-        <v>2111641.81</v>
+        <v>-92605.63</v>
       </c>
     </row>
     <row r="11">
@@ -1255,152 +1251,152 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>CVNA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>344.48</v>
+        <v>432.23</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>339.25 - 341.04</t>
+          <t>421.61 - 427.90</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>331.41</v>
+        <v>405.68</v>
       </c>
       <c r="F11" t="n">
-        <v>331.41</v>
+        <v>405.68</v>
       </c>
       <c r="G11" t="n">
-        <v>88.95999999999999</v>
+        <v>90.08</v>
       </c>
       <c r="H11" t="n">
-        <v>331.41</v>
+        <v>405.68</v>
       </c>
       <c r="I11" t="n">
-        <v>413.38</v>
+        <v>518.67</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="L11" t="n">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="M11" t="n">
-        <v>0.14</v>
+        <v>0.55</v>
       </c>
       <c r="N11" t="n">
-        <v>0.22</v>
+        <v>0.68</v>
       </c>
       <c r="O11" t="n">
-        <v>29967120</v>
+        <v>116947000</v>
       </c>
       <c r="P11" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.44</v>
+        <v>0.09</v>
       </c>
       <c r="R11" t="n">
-        <v>10344799232</v>
+        <v>93919256576</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>资金分歧(内强外弱)</t>
+          <t>趋势结束(最弱)</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>230164.3</v>
+        <v>-946178.4</v>
       </c>
       <c r="V11" t="n">
-        <v>-265357.88</v>
+        <v>-1667433.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.14</v>
+        <v>314.24</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.79 - 21.92</t>
+          <t>310.51 - 311.10</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21.25</v>
+        <v>304.92</v>
       </c>
       <c r="F12" t="n">
-        <v>21.25</v>
+        <v>304.92</v>
       </c>
       <c r="G12" t="n">
-        <v>88.55</v>
+        <v>89.39</v>
       </c>
       <c r="H12" t="n">
-        <v>21.25</v>
+        <v>304.92</v>
       </c>
       <c r="I12" t="n">
-        <v>26.57</v>
+        <v>377.09</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.69</v>
+        <v>0.33</v>
       </c>
       <c r="L12" t="n">
-        <v>2.65</v>
+        <v>0.35</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.04</v>
+        <v>0.16</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
-        <v>85877386</v>
+        <v>5407000000</v>
       </c>
       <c r="P12" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
       <c r="R12" t="n">
-        <v>1938929536</v>
+        <v>3792366469120</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
+          <t>价格拉升但量未确认</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>157789.55</v>
+        <v>-143531.3</v>
       </c>
       <c r="V12" t="n">
-        <v>176690.61</v>
+        <v>2111641.81</v>
       </c>
     </row>
     <row r="13">
@@ -1411,140 +1407,140 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATMU</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>53.48</v>
+        <v>344.48</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>52.85 - 52.95</t>
+          <t>339.25 - 341.04</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>51.92</v>
+        <v>331.41</v>
       </c>
       <c r="F13" t="n">
-        <v>51</v>
+        <v>331.41</v>
       </c>
       <c r="G13" t="n">
-        <v>81.84</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>51.92</v>
+        <v>331.41</v>
       </c>
       <c r="I13" t="n">
-        <v>64.18000000000001</v>
+        <v>413.38</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="L13" t="n">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="M13" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.72</v>
+        <v>0.22</v>
       </c>
       <c r="O13" t="n">
-        <v>81507839</v>
+        <v>29967120</v>
       </c>
       <c r="P13" t="n">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
       <c r="R13" t="n">
-        <v>4413943808</v>
+        <v>10344799232</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
+          <t>资金分歧(内强外弱)</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>115934.4</v>
+        <v>230164.3</v>
       </c>
       <c r="V13" t="n">
-        <v>50241.98</v>
+        <v>-265357.88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>189.18</v>
+        <v>22.14</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>186.25 - 187.28</t>
+          <t>21.79 - 21.92</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>181.87</v>
+        <v>21.25</v>
       </c>
       <c r="F14" t="n">
-        <v>181.87</v>
+        <v>21.25</v>
       </c>
       <c r="G14" t="n">
-        <v>74.79000000000001</v>
+        <v>88.66</v>
       </c>
       <c r="H14" t="n">
-        <v>181.87</v>
+        <v>21.25</v>
       </c>
       <c r="I14" t="n">
-        <v>227.01</v>
+        <v>26.57</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>0.65</v>
+        <v>2.69</v>
       </c>
       <c r="L14" t="n">
-        <v>0.67</v>
+        <v>2.65</v>
       </c>
       <c r="M14" t="n">
-        <v>0.62</v>
+        <v>-0.04</v>
       </c>
       <c r="N14" t="n">
-        <v>1.07</v>
+        <v>0.2</v>
       </c>
       <c r="O14" t="n">
-        <v>24305000000</v>
+        <v>85877386</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="R14" t="n">
-        <v>4605600071680</v>
+        <v>1938929536</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1553,88 +1549,88 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>10421640.6</v>
+        <v>157789.55</v>
       </c>
       <c r="V14" t="n">
-        <v>8324945.94</v>
+        <v>176690.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>VIK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>211.93</v>
+        <v>74.08</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>207.15 - 209.81</t>
+          <t>73.17 - 73.34</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>199.98</v>
+        <v>71.8</v>
       </c>
       <c r="F15" t="n">
-        <v>199.98</v>
+        <v>69.39</v>
       </c>
       <c r="G15" t="n">
-        <v>66.12</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>199.98</v>
+        <v>71.8</v>
       </c>
       <c r="I15" t="n">
-        <v>254.31</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="M15" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05</v>
+        <v>86.04000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>1628041540</v>
+        <v>315839182</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.51</v>
+        <v>-0.19</v>
       </c>
       <c r="R15" t="n">
-        <v>344705236992</v>
+        <v>32130695168</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>资金分歧(内强外弱)</t>
+          <t>明确吸筹(最强)</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>2228389.85</v>
+        <v>385009.55</v>
       </c>
       <c r="V15" t="n">
-        <v>-3165179.71</v>
+        <v>19094.57</v>
       </c>
     </row>
     <row r="16">
@@ -1645,74 +1641,70 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>119.18</v>
+        <v>350.54</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>117.60 - 117.99</t>
+          <t>346.20 - 347.03</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>115.22</v>
+        <v>339.7</v>
       </c>
       <c r="F16" t="n">
-        <v>112.16</v>
+        <v>325.17</v>
       </c>
       <c r="G16" t="n">
-        <v>91.45999999999999</v>
+        <v>82.37</v>
       </c>
       <c r="H16" t="n">
-        <v>115.22</v>
+        <v>339.7</v>
       </c>
       <c r="I16" t="n">
-        <v>143.02</v>
+        <v>420.65</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="L16" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="N16" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="O16" t="n">
-        <v>135863661</v>
+        <v>47194630</v>
       </c>
       <c r="P16" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.47</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>16300716032</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+        <v>16439392256</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
           <t>明确吸筹(最强)</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>189978.75</v>
+        <v>103518</v>
       </c>
       <c r="V16" t="n">
-        <v>215141.72</v>
+        <v>84116.21000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1723,58 +1715,58 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>ATMU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>133.57</v>
+        <v>53.48</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>131.87 - 132.23</t>
+          <t>52.85 - 52.95</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>129.34</v>
+        <v>51.92</v>
       </c>
       <c r="F17" t="n">
-        <v>122.2</v>
+        <v>51</v>
       </c>
       <c r="G17" t="n">
-        <v>90.59999999999999</v>
+        <v>82.05</v>
       </c>
       <c r="H17" t="n">
-        <v>129.34</v>
+        <v>51.92</v>
       </c>
       <c r="I17" t="n">
-        <v>160.28</v>
+        <v>64.18000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="L17" t="n">
-        <v>0.62</v>
+        <v>0.27</v>
       </c>
       <c r="M17" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="N17" t="n">
-        <v>0.16</v>
+        <v>0.72</v>
       </c>
       <c r="O17" t="n">
-        <v>204649752</v>
+        <v>81507839</v>
       </c>
       <c r="P17" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.72</v>
+        <v>0.57</v>
       </c>
       <c r="R17" t="n">
-        <v>27606253568</v>
+        <v>4413943808</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -1787,10 +1779,10 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>682190.7</v>
+        <v>115934.4</v>
       </c>
       <c r="V17" t="n">
-        <v>294020.88</v>
+        <v>50241.98</v>
       </c>
     </row>
     <row r="18">
@@ -1801,74 +1793,70 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INVX</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.89</v>
+        <v>75.72</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23.44 - 23.65</t>
+          <t>75.04 - 74.96</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.78</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>22.44</v>
+        <v>72.83</v>
       </c>
       <c r="G18" t="n">
-        <v>86.70999999999999</v>
+        <v>79.58</v>
       </c>
       <c r="H18" t="n">
-        <v>22.78</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>28.66</v>
+        <v>90.86</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.52</v>
+        <v>0.41</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.71</v>
+        <v>0.4</v>
       </c>
       <c r="M18" t="n">
-        <v>0.58</v>
+        <v>0.17</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="O18" t="n">
-        <v>68927791</v>
+        <v>977021216</v>
       </c>
       <c r="P18" t="n">
-        <v>1.05</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="R18" t="n">
-        <v>1594299776</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Energy</t>
-        </is>
-      </c>
+        <v>75885232128</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>资金分歧(内强外弱)</t>
+          <t>明确吸筹(最强)</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>102254.8</v>
+        <v>1617866.8</v>
       </c>
       <c r="V18" t="n">
-        <v>-13136.3</v>
+        <v>372107.36</v>
       </c>
     </row>
     <row r="19">
@@ -1879,230 +1867,226 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>TKO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>188.76</v>
+        <v>202.81</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>186.97 - 186.87</t>
+          <t>200.36 - 200.78</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>184.28</v>
+        <v>196.69</v>
       </c>
       <c r="F19" t="n">
-        <v>177.17</v>
+        <v>196.69</v>
       </c>
       <c r="G19" t="n">
-        <v>85.06999999999999</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>184.28</v>
+        <v>196.69</v>
       </c>
       <c r="I19" t="n">
-        <v>226.51</v>
+        <v>243.37</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3</v>
+        <v>0.77</v>
       </c>
       <c r="L19" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="M19" t="n">
-        <v>0.12</v>
+        <v>-0.27</v>
       </c>
       <c r="N19" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="O19" t="n">
-        <v>1340771942</v>
+        <v>78922362</v>
       </c>
       <c r="P19" t="n">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="R19" t="n">
-        <v>253409263616</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+        <v>17904197632</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
+          <t>趋势结束(最弱)</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>2140362.95</v>
+        <v>-93846.55</v>
       </c>
       <c r="V19" t="n">
-        <v>247057.91</v>
+        <v>-66789.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>90.26000000000001</v>
+        <v>189.18</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.23 - 89.36</t>
+          <t>186.25 - 187.28</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>87.7</v>
+        <v>181.87</v>
       </c>
       <c r="F20" t="n">
-        <v>87.7</v>
+        <v>181.87</v>
       </c>
       <c r="G20" t="n">
-        <v>83.45</v>
+        <v>74.75</v>
       </c>
       <c r="H20" t="n">
-        <v>87.7</v>
+        <v>181.87</v>
       </c>
       <c r="I20" t="n">
-        <v>108.31</v>
+        <v>227.01</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
       <c r="L20" t="n">
-        <v>0.14</v>
+        <v>0.67</v>
       </c>
       <c r="M20" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="N20" t="n">
-        <v>0.18</v>
+        <v>1.07</v>
       </c>
       <c r="O20" t="n">
-        <v>209907662</v>
+        <v>24305000000</v>
       </c>
       <c r="P20" t="n">
-        <v>1.05</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="R20" t="n">
-        <v>18988247040</v>
+        <v>4605600071680</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>趋势结束(最弱)</t>
+          <t>明确吸筹(最强)</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>-379605.6</v>
+        <v>10421640.6</v>
       </c>
       <c r="V20" t="n">
-        <v>-173122.91</v>
+        <v>8324945.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NYT</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>69.65000000000001</v>
+        <v>211.93</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>69.02 - 68.95</t>
+          <t>207.15 - 209.81</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>68.09</v>
+        <v>199.98</v>
       </c>
       <c r="F21" t="n">
-        <v>66.23999999999999</v>
+        <v>199.98</v>
       </c>
       <c r="G21" t="n">
-        <v>79.28</v>
+        <v>65.88</v>
       </c>
       <c r="H21" t="n">
-        <v>68.09</v>
+        <v>199.98</v>
       </c>
       <c r="I21" t="n">
-        <v>83.58</v>
+        <v>254.31</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>0.27</v>
+        <v>0.61</v>
       </c>
       <c r="L21" t="n">
-        <v>0.28</v>
+        <v>0.6</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="N21" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="O21" t="n">
-        <v>161568285</v>
+        <v>1628041540</v>
       </c>
       <c r="P21" t="n">
-        <v>0.99</v>
+        <v>0.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="R21" t="n">
-        <v>11372894208</v>
+        <v>344705236992</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
+          <t>资金分歧(内强外弱)</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>660815.95</v>
+        <v>2228389.85</v>
       </c>
       <c r="V21" t="n">
-        <v>143794.76</v>
+        <v>-3165179.71</v>
       </c>
     </row>
   </sheetData>

--- a/swing_strategy_vix_sim_20260107.xlsx
+++ b/swing_strategy_vix_sim_20260107.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,15 +531,30 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>trade_state</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>allow_trade</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>trade_score</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>obv_ad_interpretation</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>obv_slope_20</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>ad_slope_20</t>
         </is>
@@ -553,74 +568,85 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>MTSI</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>198.96</v>
+        <v>171.36</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>196.29 - 196.97</t>
+          <t>167.96 - 169.65</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>192.28</v>
+        <v>162.87</v>
       </c>
       <c r="F2" t="n">
-        <v>183.07</v>
+        <v>162.87</v>
       </c>
       <c r="G2" t="n">
-        <v>91.05</v>
+        <v>78.20999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>192.28</v>
+        <v>162.87</v>
       </c>
       <c r="I2" t="n">
-        <v>238.75</v>
+        <v>205.63</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>20.64</v>
+        <v>0.53</v>
       </c>
       <c r="L2" t="n">
-        <v>21</v>
+        <v>0.54</v>
       </c>
       <c r="M2" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.17</v>
+        <v>-0.04</v>
       </c>
       <c r="O2" t="n">
-        <v>55157085</v>
+        <v>74932978</v>
       </c>
       <c r="P2" t="n">
-        <v>1.08</v>
+        <v>0.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="R2" t="n">
-        <v>11169585152</v>
+        <v>12777945088</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v>532820.95</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>93880.75</v>
+        <v>73.17</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>84578.64999999999</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-240608.21</v>
       </c>
     </row>
     <row r="3">
@@ -631,74 +657,85 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>362.77</v>
+        <v>91.51000000000001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>357.89 - 359.14</t>
+          <t>89.49 - 90.60</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>350.57</v>
+        <v>86.44</v>
       </c>
       <c r="F3" t="n">
-        <v>350.57</v>
+        <v>85.23</v>
       </c>
       <c r="G3" t="n">
-        <v>83.45999999999999</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>350.57</v>
+        <v>86.44</v>
       </c>
       <c r="I3" t="n">
-        <v>435.32</v>
+        <v>109.82</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.44</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>0.16</v>
+        <v>0.62</v>
       </c>
       <c r="N3" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
-        <v>38759382</v>
+        <v>504888275</v>
       </c>
       <c r="P3" t="n">
-        <v>1.01</v>
+        <v>0.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="R3" t="n">
-        <v>22025291776</v>
+        <v>46959661056</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>趋势结束(最弱)</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v>-71515.55</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>-184313.02</v>
+        <v>69.84999999999999</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>783688.6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-93966.14999999999</v>
       </c>
     </row>
     <row r="4">
@@ -709,74 +746,85 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MTSI</t>
+          <t>TFPM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>171.36</v>
+        <v>33.92</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>167.96 - 169.65</t>
+          <t>33.17 - 33.59</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>162.87</v>
+        <v>32.04</v>
       </c>
       <c r="F4" t="n">
-        <v>162.87</v>
+        <v>32.04</v>
       </c>
       <c r="G4" t="n">
-        <v>78.20999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="H4" t="n">
-        <v>162.87</v>
+        <v>32.04</v>
       </c>
       <c r="I4" t="n">
-        <v>205.63</v>
+        <v>40.71</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.53</v>
+        <v>1.09</v>
       </c>
       <c r="L4" t="n">
-        <v>0.54</v>
+        <v>1.04</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04</v>
+        <v>0.11</v>
       </c>
       <c r="O4" t="n">
-        <v>74932978</v>
+        <v>206561506</v>
       </c>
       <c r="P4" t="n">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="R4" t="n">
-        <v>12777945088</v>
+        <v>7185598976</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>68.31</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>资金分歧(内强外弱)</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>84578.64999999999</v>
-      </c>
-      <c r="V4" t="n">
-        <v>-240608.21</v>
+      <c r="X4" t="n">
+        <v>46213.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-92605.63</v>
       </c>
     </row>
     <row r="5">
@@ -787,226 +835,263 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91.51000000000001</v>
+        <v>344.48</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.49 - 90.60</t>
+          <t>339.25 - 341.04</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.44</v>
+        <v>331.41</v>
       </c>
       <c r="F5" t="n">
-        <v>85.23</v>
+        <v>331.41</v>
       </c>
       <c r="G5" t="n">
-        <v>97.70999999999999</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>86.44</v>
+        <v>331.41</v>
       </c>
       <c r="I5" t="n">
-        <v>109.82</v>
+        <v>413.38</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0.52</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>0.53</v>
       </c>
       <c r="M5" t="n">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
       <c r="O5" t="n">
-        <v>504888275</v>
+        <v>29967120</v>
       </c>
       <c r="P5" t="n">
-        <v>0.76</v>
+        <v>0.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="R5" t="n">
-        <v>46959661056</v>
+        <v>10344799232</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
           <t>资金分歧(内强外弱)</t>
         </is>
       </c>
-      <c r="U5" t="n">
-        <v>783688.6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>-93966.14999999999</v>
+      <c r="X5" t="n">
+        <v>230164.3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-265357.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47.74</v>
+        <v>211.93</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46.89 - 47.26</t>
+          <t>207.15 - 209.81</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>45.62</v>
+        <v>199.98</v>
       </c>
       <c r="F6" t="n">
-        <v>43.2</v>
+        <v>199.98</v>
       </c>
       <c r="G6" t="n">
-        <v>96.79000000000001</v>
+        <v>65.88</v>
       </c>
       <c r="H6" t="n">
-        <v>45.62</v>
+        <v>199.98</v>
       </c>
       <c r="I6" t="n">
-        <v>57.29</v>
+        <v>254.31</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.7</v>
+        <v>0.61</v>
       </c>
       <c r="L6" t="n">
-        <v>1.76</v>
+        <v>0.6</v>
       </c>
       <c r="M6" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="N6" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1687433930</v>
+        <v>1628041540</v>
       </c>
       <c r="P6" t="n">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.27</v>
+        <v>0.51</v>
       </c>
       <c r="R6" t="n">
-        <v>79010889728</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>344705236992</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>5627639.6</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>1827531.17</v>
+        <v>62.21</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>2228389.85</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-3165179.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>INVX</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.63</v>
+        <v>23.89</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.95 - 19.43</t>
+          <t>23.44 - 23.65</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>17.93</v>
+        <v>22.78</v>
       </c>
       <c r="F7" t="n">
-        <v>17.71</v>
+        <v>22.44</v>
       </c>
       <c r="G7" t="n">
-        <v>96.56</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>17.93</v>
+        <v>22.78</v>
       </c>
       <c r="I7" t="n">
-        <v>23.56</v>
+        <v>28.66</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.47</v>
+        <v>-0.52</v>
       </c>
       <c r="L7" t="n">
-        <v>2.42</v>
+        <v>-0.71</v>
       </c>
       <c r="M7" t="n">
-        <v>0.77</v>
+        <v>0.58</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O7" t="n">
-        <v>642106588</v>
+        <v>68927791</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="R7" t="n">
-        <v>12606482432</v>
+        <v>1594299776</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v>627391.05</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>1303970.03</v>
+        <v>59.27</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>102254.8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-13136.3</v>
       </c>
     </row>
     <row r="8">
@@ -1017,74 +1102,81 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>ATRC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>107.16</v>
+        <v>40.73</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>105.12 - 106.09</t>
+          <t>40.03 - 40.32</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102.05</v>
+        <v>38.99</v>
       </c>
       <c r="F8" t="n">
-        <v>98.90000000000001</v>
+        <v>38.99</v>
       </c>
       <c r="G8" t="n">
-        <v>95.39</v>
+        <v>78.61</v>
       </c>
       <c r="H8" t="n">
-        <v>102.05</v>
+        <v>38.99</v>
       </c>
       <c r="I8" t="n">
-        <v>128.59</v>
+        <v>48.88</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.08</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="N8" t="n">
-        <v>0.23</v>
+        <v>-0.06</v>
       </c>
       <c r="O8" t="n">
-        <v>1091262981</v>
+        <v>49716988</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>0.14</v>
       </c>
       <c r="R8" t="n">
-        <v>119088422912</v>
+        <v>2019752576</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>3440923.55</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>1422241.26</v>
+        <v>57.27</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>67549.55</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-45304.03</v>
       </c>
     </row>
     <row r="9">
@@ -1095,74 +1187,81 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORLA</t>
+          <t>FOLD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.09</v>
+        <v>14.27</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.67 - 13.95</t>
+          <t>14.05 - 14.13</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13.05</v>
+        <v>13.71</v>
       </c>
       <c r="F9" t="n">
-        <v>13.05</v>
+        <v>12.51</v>
       </c>
       <c r="G9" t="n">
-        <v>92.06999999999999</v>
+        <v>93</v>
       </c>
       <c r="H9" t="n">
-        <v>13.05</v>
+        <v>13.71</v>
       </c>
       <c r="I9" t="n">
-        <v>16.91</v>
+        <v>17.12</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.33</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>1.77</v>
+        <v>0.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>339896220</v>
+        <v>309301959</v>
       </c>
       <c r="P9" t="n">
-        <v>0.75</v>
+        <v>1.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.74</v>
+        <v>2.96</v>
       </c>
       <c r="R9" t="n">
-        <v>4753448448</v>
+        <v>4413739008</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
-        <v>2072023.6</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>474315.07</v>
+        <v>52.72</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>11719110.3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-5541296.38</v>
       </c>
     </row>
     <row r="10">
@@ -1173,74 +1272,81 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TFPM</t>
+          <t>EXAS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.92</v>
+        <v>101.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33.17 - 33.59</t>
+          <t>101.45 - 100.68</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.04</v>
+        <v>101.07</v>
       </c>
       <c r="F10" t="n">
-        <v>32.04</v>
+        <v>95.47</v>
       </c>
       <c r="G10" t="n">
-        <v>91.3</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>32.04</v>
+        <v>101.07</v>
       </c>
       <c r="I10" t="n">
-        <v>40.71</v>
+        <v>122.04</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.04</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.11</v>
+        <v>-0.35</v>
       </c>
       <c r="O10" t="n">
-        <v>206561506</v>
+        <v>189765827</v>
       </c>
       <c r="P10" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03</v>
+        <v>0.61</v>
       </c>
       <c r="R10" t="n">
-        <v>7185598976</v>
+        <v>19287797760</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
           <t>资金分歧(内强外弱)</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v>46213.1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>-92605.63</v>
+      <c r="X10" t="n">
+        <v>450687.15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-460001.14</v>
       </c>
     </row>
     <row r="11">
@@ -1251,152 +1357,174 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>REVG</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>432.23</v>
+        <v>63.16</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>421.61 - 427.90</t>
+          <t>62.37 - 62.53</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>405.68</v>
+        <v>61.17</v>
       </c>
       <c r="F11" t="n">
-        <v>405.68</v>
+        <v>60.05</v>
       </c>
       <c r="G11" t="n">
-        <v>90.08</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>405.68</v>
+        <v>61.17</v>
       </c>
       <c r="I11" t="n">
-        <v>518.67</v>
+        <v>75.79000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.78</v>
+        <v>-0.31</v>
       </c>
       <c r="L11" t="n">
-        <v>0.61</v>
+        <v>-0.27</v>
       </c>
       <c r="M11" t="n">
-        <v>0.55</v>
+        <v>0.11</v>
       </c>
       <c r="N11" t="n">
-        <v>0.68</v>
+        <v>0.22</v>
       </c>
       <c r="O11" t="n">
-        <v>116947000</v>
+        <v>48806145</v>
       </c>
       <c r="P11" t="n">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.09</v>
+        <v>0.72</v>
       </c>
       <c r="R11" t="n">
-        <v>93919256576</v>
+        <v>3192897792</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>趋势结束(最弱)</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>-946178.4</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U11" t="b">
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>-1667433.35</v>
+        <v>51.7</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X11" t="n">
+        <v>147719.75</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-10325.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>314.24</v>
+        <v>106.59</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>310.51 - 311.10</t>
+          <t>104.61 - 105.52</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>304.92</v>
+        <v>101.63</v>
       </c>
       <c r="F12" t="n">
-        <v>304.92</v>
+        <v>101.63</v>
       </c>
       <c r="G12" t="n">
-        <v>89.39</v>
+        <v>84.86</v>
       </c>
       <c r="H12" t="n">
-        <v>304.92</v>
+        <v>101.63</v>
       </c>
       <c r="I12" t="n">
-        <v>377.09</v>
+        <v>127.91</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="L12" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.35</v>
       </c>
-      <c r="M12" t="n">
-        <v>0.16</v>
-      </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.09</v>
       </c>
       <c r="O12" t="n">
-        <v>5407000000</v>
+        <v>161359550</v>
       </c>
       <c r="P12" t="n">
-        <v>0.61</v>
+        <v>0.99</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.32</v>
+        <v>1.11</v>
       </c>
       <c r="R12" t="n">
-        <v>3792366469120</v>
+        <v>17275961344</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>价格拉升但量未确认</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
-        <v>-143531.3</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U12" t="b">
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>2111641.81</v>
+        <v>50.77</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>292876.2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-28578.62</v>
       </c>
     </row>
     <row r="13">
@@ -1407,58 +1535,58 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>JBHT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>344.48</v>
+        <v>204.2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>339.25 - 341.04</t>
+          <t>202.08 - 202.16</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>331.41</v>
+        <v>198.89</v>
       </c>
       <c r="F13" t="n">
-        <v>331.41</v>
+        <v>190.12</v>
       </c>
       <c r="G13" t="n">
-        <v>88.93000000000001</v>
+        <v>79.97</v>
       </c>
       <c r="H13" t="n">
-        <v>331.41</v>
+        <v>198.89</v>
       </c>
       <c r="I13" t="n">
-        <v>413.38</v>
+        <v>245.04</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.52</v>
+        <v>0.12</v>
       </c>
       <c r="L13" t="n">
-        <v>0.53</v>
+        <v>0.18</v>
       </c>
       <c r="M13" t="n">
-        <v>0.14</v>
+        <v>-0</v>
       </c>
       <c r="N13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>95218346</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q13" t="n">
         <v>0.22</v>
       </c>
-      <c r="O13" t="n">
-        <v>29967120</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.44</v>
-      </c>
       <c r="R13" t="n">
-        <v>10344799232</v>
+        <v>19910643712</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1467,14 +1595,25 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>49.59</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
           <t>资金分歧(内强外弱)</t>
         </is>
       </c>
-      <c r="U13" t="n">
-        <v>230164.3</v>
-      </c>
-      <c r="V13" t="n">
-        <v>-265357.88</v>
+      <c r="X13" t="n">
+        <v>127874.6</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-56504.96</v>
       </c>
     </row>
     <row r="14">
@@ -1485,74 +1624,81 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.14</v>
+        <v>28.44</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21.79 - 21.92</t>
+          <t>28.09 - 28.16</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.25</v>
+        <v>27.56</v>
       </c>
       <c r="F14" t="n">
-        <v>21.25</v>
+        <v>27.56</v>
       </c>
       <c r="G14" t="n">
-        <v>88.66</v>
+        <v>96.44</v>
       </c>
       <c r="H14" t="n">
-        <v>21.25</v>
+        <v>27.56</v>
       </c>
       <c r="I14" t="n">
-        <v>26.57</v>
+        <v>34.13</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="O14" t="n">
-        <v>85877386</v>
+        <v>2478398797</v>
       </c>
       <c r="P14" t="n">
-        <v>0.99</v>
+        <v>0.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.75</v>
+        <v>3.3</v>
       </c>
       <c r="R14" t="n">
-        <v>1938929536</v>
+        <v>70745890816</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
-        </is>
-      </c>
-      <c r="U14" t="n">
-        <v>157789.55</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U14" t="b">
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>176690.61</v>
+        <v>45.54</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X14" t="n">
+        <v>14595092.15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-6748351.57</v>
       </c>
     </row>
     <row r="15">
@@ -1563,74 +1709,81 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VIK</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74.08</v>
+        <v>109.42</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>73.17 - 73.34</t>
+          <t>107.89 - 108.33</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>71.8</v>
+        <v>105.61</v>
       </c>
       <c r="F15" t="n">
-        <v>69.39</v>
+        <v>102.64</v>
       </c>
       <c r="G15" t="n">
-        <v>86.59999999999999</v>
+        <v>83.33</v>
       </c>
       <c r="H15" t="n">
-        <v>71.8</v>
+        <v>105.61</v>
       </c>
       <c r="I15" t="n">
-        <v>88.90000000000001</v>
+        <v>131.3</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="N15" t="n">
-        <v>86.04000000000001</v>
+        <v>-0.21</v>
       </c>
       <c r="O15" t="n">
-        <v>315839182</v>
+        <v>245852896</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.19</v>
+        <v>0.99</v>
       </c>
       <c r="R15" t="n">
-        <v>32130695168</v>
+        <v>39201792000</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
-        </is>
-      </c>
-      <c r="U15" t="n">
-        <v>385009.55</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U15" t="b">
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>19094.57</v>
+        <v>42.4</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
+        <v>177190.85</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-664327.25</v>
       </c>
     </row>
     <row r="16">
@@ -1641,70 +1794,81 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>ROKU</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>350.54</v>
+        <v>112.37</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>346.20 - 347.03</t>
+          <t>110.04 - 111.25</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>339.7</v>
+        <v>106.55</v>
       </c>
       <c r="F16" t="n">
-        <v>325.17</v>
+        <v>106.55</v>
       </c>
       <c r="G16" t="n">
-        <v>82.37</v>
+        <v>82.09</v>
       </c>
       <c r="H16" t="n">
-        <v>339.7</v>
+        <v>106.55</v>
       </c>
       <c r="I16" t="n">
-        <v>420.65</v>
+        <v>134.84</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.44</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.09</v>
+        <v>-0.01</v>
       </c>
       <c r="O16" t="n">
-        <v>47194630</v>
+        <v>130797707</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="R16" t="n">
-        <v>16439392256</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
+        <v>16783123456</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
-        </is>
-      </c>
-      <c r="U16" t="n">
-        <v>103518</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U16" t="b">
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>84116.21000000001</v>
+        <v>42.1</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X16" t="n">
+        <v>1124216.7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-162173.95</v>
       </c>
     </row>
     <row r="17">
@@ -1715,74 +1879,85 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATMU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53.48</v>
+        <v>204.26</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>52.85 - 52.95</t>
+          <t>203.93 - 202.22</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>51.92</v>
+        <v>203.42</v>
       </c>
       <c r="F17" t="n">
-        <v>51</v>
+        <v>190.55</v>
       </c>
       <c r="G17" t="n">
-        <v>82.05</v>
+        <v>79.12</v>
       </c>
       <c r="H17" t="n">
-        <v>51.92</v>
+        <v>203.42</v>
       </c>
       <c r="I17" t="n">
-        <v>64.18000000000001</v>
+        <v>245.12</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.25</v>
+        <v>-0.53</v>
       </c>
       <c r="L17" t="n">
-        <v>0.27</v>
+        <v>-0.51</v>
       </c>
       <c r="M17" t="n">
-        <v>0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="N17" t="n">
-        <v>0.72</v>
+        <v>0.13</v>
       </c>
       <c r="O17" t="n">
-        <v>81507839</v>
+        <v>250106129</v>
       </c>
       <c r="P17" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="R17" t="n">
-        <v>4413943808</v>
+        <v>51089178624</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>明确吸筹(最强)</t>
-        </is>
-      </c>
-      <c r="U17" t="n">
-        <v>115934.4</v>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>50241.98</v>
+        <v>41.39</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>资金分歧(内强外弱)</t>
+        </is>
+      </c>
+      <c r="X17" t="n">
+        <v>500325.6</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-461987.71</v>
       </c>
     </row>
     <row r="18">
@@ -1793,70 +1968,85 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>FIVE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>75.72</v>
+        <v>198.96</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>75.04 - 74.96</t>
+          <t>196.29 - 196.97</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>74.01000000000001</v>
+        <v>192.28</v>
       </c>
       <c r="F18" t="n">
-        <v>72.83</v>
+        <v>183.07</v>
       </c>
       <c r="G18" t="n">
-        <v>79.58</v>
+        <v>91.05</v>
       </c>
       <c r="H18" t="n">
-        <v>74.01000000000001</v>
+        <v>192.28</v>
       </c>
       <c r="I18" t="n">
-        <v>90.86</v>
+        <v>238.75</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.41</v>
+        <v>20.64</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4</v>
+        <v>21</v>
       </c>
       <c r="M18" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.17</v>
       </c>
-      <c r="N18" t="n">
-        <v>0.26</v>
-      </c>
       <c r="O18" t="n">
-        <v>977021216</v>
+        <v>55157085</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
       <c r="R18" t="n">
-        <v>75885232128</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
+        <v>11169585152</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr">
         <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
           <t>明确吸筹(最强)</t>
         </is>
       </c>
-      <c r="U18" t="n">
-        <v>1617866.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>372107.36</v>
+      <c r="X18" t="n">
+        <v>532820.95</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>93880.75</v>
       </c>
     </row>
     <row r="19">
@@ -1867,70 +2057,81 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>202.81</v>
+        <v>47.74</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>200.36 - 200.78</t>
+          <t>46.89 - 47.26</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>196.69</v>
+        <v>45.62</v>
       </c>
       <c r="F19" t="n">
-        <v>196.69</v>
+        <v>43.2</v>
       </c>
       <c r="G19" t="n">
-        <v>76.95999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>196.69</v>
+        <v>45.62</v>
       </c>
       <c r="I19" t="n">
-        <v>243.37</v>
+        <v>57.29</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>0.77</v>
+        <v>1.7</v>
       </c>
       <c r="L19" t="n">
-        <v>0.65</v>
+        <v>1.76</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.27</v>
+        <v>0.23</v>
       </c>
       <c r="N19" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="O19" t="n">
-        <v>78922362</v>
+        <v>1687433930</v>
       </c>
       <c r="P19" t="n">
-        <v>0.98</v>
+        <v>0.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="R19" t="n">
-        <v>17904197632</v>
+        <v>79010889728</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>趋势结束(最弱)</t>
-        </is>
-      </c>
-      <c r="U19" t="n">
-        <v>-93846.55</v>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>-66789.05</v>
+        <v>91.23</v>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X19" t="n">
+        <v>5627639.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1827531.17</v>
       </c>
     </row>
     <row r="20">
@@ -1941,152 +2142,4022 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>CDE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>189.18</v>
+        <v>19.63</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>186.25 - 187.28</t>
+          <t>18.95 - 19.43</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>181.87</v>
+        <v>17.93</v>
       </c>
       <c r="F20" t="n">
-        <v>181.87</v>
+        <v>17.71</v>
       </c>
       <c r="G20" t="n">
-        <v>74.75</v>
+        <v>96.56</v>
       </c>
       <c r="H20" t="n">
-        <v>181.87</v>
+        <v>17.93</v>
       </c>
       <c r="I20" t="n">
-        <v>227.01</v>
+        <v>23.56</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>0.65</v>
+        <v>4.47</v>
       </c>
       <c r="L20" t="n">
-        <v>0.67</v>
+        <v>2.42</v>
       </c>
       <c r="M20" t="n">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="N20" t="n">
-        <v>1.07</v>
+        <v>0.2</v>
       </c>
       <c r="O20" t="n">
-        <v>24305000000</v>
+        <v>642106588</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.64</v>
+        <v>0.33</v>
       </c>
       <c r="R20" t="n">
-        <v>4605600071680</v>
+        <v>12606482432</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>91.17</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
           <t>明确吸筹(最强)</t>
         </is>
       </c>
-      <c r="U20" t="n">
-        <v>10421640.6</v>
-      </c>
-      <c r="V20" t="n">
-        <v>8324945.94</v>
+      <c r="X20" t="n">
+        <v>627391.05</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1303970.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>211.93</v>
+        <v>107.16</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>207.15 - 209.81</t>
+          <t>105.12 - 106.09</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>199.98</v>
+        <v>102.05</v>
       </c>
       <c r="F21" t="n">
-        <v>199.98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>65.88</v>
+        <v>95.39</v>
       </c>
       <c r="H21" t="n">
-        <v>199.98</v>
+        <v>102.05</v>
       </c>
       <c r="I21" t="n">
-        <v>254.31</v>
+        <v>128.59</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
       </c>
       <c r="K21" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1091262981</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R21" t="n">
+        <v>119088422912</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>90.89</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X21" t="n">
+        <v>3440923.55</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1422241.26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ORLA</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.67 - 13.95</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>92.06999999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>339896220</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4753448448</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X22" t="n">
+        <v>2072023.6</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>474315.07</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.79 - 21.92</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="G23" t="n">
+        <v>88.66</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>85877386</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1938929536</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>89.28</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X23" t="n">
+        <v>157789.55</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>176690.61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VIK</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>74.08</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>73.17 - 73.34</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>69.39</v>
+      </c>
+      <c r="G24" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N24" t="n">
+        <v>86.04000000000001</v>
+      </c>
+      <c r="O24" t="n">
+        <v>315839182</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="R24" t="n">
+        <v>32130695168</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>88.78</v>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X24" t="n">
+        <v>385009.55</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>19094.57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>JLL</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>350.54</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>346.20 - 347.03</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>339.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>325.17</v>
+      </c>
+      <c r="G25" t="n">
+        <v>82.37</v>
+      </c>
+      <c r="H25" t="n">
+        <v>339.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>420.65</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O25" t="n">
+        <v>47194630</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R25" t="n">
+        <v>16439392256</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>87.77</v>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X25" t="n">
+        <v>103518</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>84116.21000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ATMU</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>53.48</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>52.85 - 52.95</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="F26" t="n">
+        <v>51</v>
+      </c>
+      <c r="G26" t="n">
+        <v>82.05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="I26" t="n">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O26" t="n">
+        <v>81507839</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4413943808</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X26" t="n">
+        <v>115934.4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>50241.98</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>75.72</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>75.04 - 74.96</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>74.01000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>72.83</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79.58</v>
+      </c>
+      <c r="H27" t="n">
+        <v>74.01000000000001</v>
+      </c>
+      <c r="I27" t="n">
+        <v>90.86</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O27" t="n">
+        <v>977021216</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="R27" t="n">
+        <v>75885232128</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X27" t="n">
+        <v>1617866.8</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>372107.36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>189.18</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>186.25 - 187.28</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>181.87</v>
+      </c>
+      <c r="F28" t="n">
+        <v>181.87</v>
+      </c>
+      <c r="G28" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="H28" t="n">
+        <v>181.87</v>
+      </c>
+      <c r="I28" t="n">
+        <v>227.01</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O28" t="n">
+        <v>24305000000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4605600071680</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U28" t="b">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>85.94</v>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X28" t="n">
+        <v>10421640.6</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8324945.94</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ATI</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>119.18</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>117.60 - 117.99</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>115.22</v>
+      </c>
+      <c r="F29" t="n">
+        <v>112.16</v>
+      </c>
+      <c r="G29" t="n">
+        <v>91.56999999999999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>115.22</v>
+      </c>
+      <c r="I29" t="n">
+        <v>143.02</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O29" t="n">
+        <v>135863661</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R29" t="n">
+        <v>16300716032</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X29" t="n">
+        <v>189978.75</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>215141.72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TPR</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>133.57</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>131.87 - 132.23</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>129.34</v>
+      </c>
+      <c r="F30" t="n">
+        <v>122.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>90.65000000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>129.34</v>
+      </c>
+      <c r="I30" t="n">
+        <v>160.28</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O30" t="n">
+        <v>204649752</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R30" t="n">
+        <v>27606253568</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>81.76000000000001</v>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X30" t="n">
+        <v>682190.7</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>294020.88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>188.76</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>186.97 - 186.87</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>184.28</v>
+      </c>
+      <c r="F31" t="n">
+        <v>177.17</v>
+      </c>
+      <c r="G31" t="n">
+        <v>85.18000000000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>184.28</v>
+      </c>
+      <c r="I31" t="n">
+        <v>226.51</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1340771942</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R31" t="n">
+        <v>253409263616</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>80.44</v>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>2140362.95</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>247057.91</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NYT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>69.65000000000001</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>69.02 - 68.95</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="F32" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>79.26000000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="I32" t="n">
+        <v>83.58</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O32" t="n">
+        <v>161568285</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R32" t="n">
+        <v>11372894208</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>79.02</v>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>660815.95</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>143794.76</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>109.35</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>108.07 - 108.26</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>106.16</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100.85</v>
+      </c>
+      <c r="G33" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>106.16</v>
+      </c>
+      <c r="I33" t="n">
+        <v>131.22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2482022536</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R33" t="n">
+        <v>272358293504</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>6466416.35</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2836163.48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ATRO</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>58.16</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>56.92 - 57.58</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="F34" t="n">
+        <v>54.36</v>
+      </c>
+      <c r="G34" t="n">
+        <v>97.20999999999999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="I34" t="n">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="O34" t="n">
+        <v>31619410</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2082732160</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>75.33</v>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X34" t="n">
+        <v>115201.6</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>60363.19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>IAG</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.40 - 16.66</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="G35" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="H35" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="I35" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="M35" t="n">
         <v>0.61</v>
       </c>
-      <c r="L21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="N35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O35" t="n">
+        <v>592641204</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="R35" t="n">
+        <v>10506586112</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>75.22</v>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X35" t="n">
+        <v>2883756.25</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>43187.97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TIGO</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>55.69 - 56.03</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>54.33</v>
+      </c>
+      <c r="F36" t="n">
+        <v>53.27</v>
+      </c>
+      <c r="G36" t="n">
+        <v>93.77</v>
+      </c>
+      <c r="H36" t="n">
+        <v>54.33</v>
+      </c>
+      <c r="I36" t="n">
+        <v>67.92</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O36" t="n">
+        <v>167085000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="R36" t="n">
+        <v>9034285056</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U36" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X36" t="n">
+        <v>390361.7</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>129978.14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BTSG</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>38.60 - 38.81</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="F37" t="n">
+        <v>36.73</v>
+      </c>
+      <c r="G37" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="I37" t="n">
+        <v>47.04</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O37" t="n">
+        <v>180352297</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7311482368</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>74.44</v>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X37" t="n">
+        <v>410794.45</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>44371.49</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>HCC</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>92.36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>90.72 - 91.43</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>88.26000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>84.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>91.17</v>
+      </c>
+      <c r="H38" t="n">
+        <v>88.26000000000001</v>
+      </c>
+      <c r="I38" t="n">
+        <v>110.83</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O38" t="n">
+        <v>52570156</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4856956928</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>73.88</v>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X38" t="n">
+        <v>244903.45</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>123640.58</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>152.62 - 153.55</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>145.27</v>
+      </c>
+      <c r="G39" t="n">
+        <v>90.14</v>
+      </c>
+      <c r="H39" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="I39" t="n">
+        <v>186.12</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O39" t="n">
+        <v>36909135</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5845590016</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U39" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>73.63</v>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X39" t="n">
+        <v>160741.05</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>65925.59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>OMCL</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>47.07</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>46.26 - 46.60</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="F40" t="n">
+        <v>43.91</v>
+      </c>
+      <c r="G40" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="H40" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="I40" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O40" t="n">
+        <v>44876522</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2150182400</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X40" t="n">
+        <v>147585.25</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>120925.89</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ARRY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.96 - 9.18</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>77.86</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="O41" t="n">
+        <v>152747767</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1453394944</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U41" t="b">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X41" t="n">
+        <v>709951.05</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>71301.81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECVT</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.01 - 10.04</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="G42" t="n">
+        <v>77.27</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="O42" t="n">
+        <v>114019414</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1172784128</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U42" t="b">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>70.54000000000001</v>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X42" t="n">
+        <v>615395.8</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>475690.48</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>KSS</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21.30 - 21.63</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="F43" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="G43" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O43" t="n">
+        <v>112189191</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2493965568</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U43" t="b">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>66.18000000000001</v>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X43" t="n">
+        <v>358284.8</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>148779.87</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GEV</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>671.55</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>657.15 - 664.83</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>635.54</v>
+      </c>
+      <c r="F44" t="n">
+        <v>635.54</v>
+      </c>
+      <c r="G44" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="H44" t="n">
+        <v>635.54</v>
+      </c>
+      <c r="I44" t="n">
+        <v>805.86</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O44" t="n">
+        <v>271320459</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R44" t="n">
+        <v>182897737728</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U44" t="b">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X44" t="n">
+        <v>673752.15</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>47918.11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>211.61</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>208.73 - 209.49</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>204.41</v>
+      </c>
+      <c r="F45" t="n">
+        <v>200.34</v>
+      </c>
+      <c r="G45" t="n">
+        <v>86.98</v>
+      </c>
+      <c r="H45" t="n">
+        <v>204.41</v>
+      </c>
+      <c r="I45" t="n">
+        <v>253.93</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O45" t="n">
+        <v>402500000</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R45" t="n">
+        <v>86340272128</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U45" t="b">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>64.87</v>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X45" t="n">
+        <v>366548.25</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>201488.78</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>75.86</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>75.05 - 75.10</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>73.84</v>
+      </c>
+      <c r="F46" t="n">
+        <v>70.97</v>
+      </c>
+      <c r="G46" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="H46" t="n">
+        <v>73.84</v>
+      </c>
+      <c r="I46" t="n">
+        <v>91.03</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O46" t="n">
+        <v>208361696</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R46" t="n">
+        <v>33839534080</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U46" t="b">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>64.51000000000001</v>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X46" t="n">
+        <v>2103230.55</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>195967.18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>UAL</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>118.06</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>116.27 - 116.88</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>113.59</v>
+      </c>
+      <c r="F47" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>80.20999999999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>113.59</v>
+      </c>
+      <c r="I47" t="n">
+        <v>141.67</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O47" t="n">
+        <v>323737989</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R47" t="n">
+        <v>38196228096</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U47" t="b">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X47" t="n">
+        <v>1577301.35</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>792099.0699999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>193.75</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>189.86 - 191.81</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>184.02</v>
+      </c>
+      <c r="F48" t="n">
+        <v>184.02</v>
+      </c>
+      <c r="G48" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="H48" t="n">
+        <v>184.02</v>
+      </c>
+      <c r="I48" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2873130000</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="R48" t="n">
+        <v>556668944384</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="U48" t="b">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>明确吸筹(最强)</t>
+        </is>
+      </c>
+      <c r="X48" t="n">
+        <v>815321.85</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2239117.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>362.77</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>357.89 - 359.14</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>350.57</v>
+      </c>
+      <c r="F49" t="n">
+        <v>350.57</v>
+      </c>
+      <c r="G49" t="n">
+        <v>83.45999999999999</v>
+      </c>
+      <c r="H49" t="n">
+        <v>350.57</v>
+      </c>
+      <c r="I49" t="n">
+        <v>435.32</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O49" t="n">
+        <v>38759382</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R49" t="n">
+        <v>22025291776</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X49" t="n">
+        <v>-71515.55</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-184313.02</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CVNA</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>432.23</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>421.61 - 427.90</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>405.68</v>
+      </c>
+      <c r="F50" t="n">
+        <v>405.68</v>
+      </c>
+      <c r="G50" t="n">
+        <v>90.08</v>
+      </c>
+      <c r="H50" t="n">
+        <v>405.68</v>
+      </c>
+      <c r="I50" t="n">
+        <v>518.67</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O50" t="n">
+        <v>116947000</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R50" t="n">
+        <v>93919256576</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X50" t="n">
+        <v>-946178.4</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-1667433.35</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>314.24</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>310.51 - 311.10</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>304.92</v>
+      </c>
+      <c r="F51" t="n">
+        <v>304.92</v>
+      </c>
+      <c r="G51" t="n">
+        <v>89.39</v>
+      </c>
+      <c r="H51" t="n">
+        <v>304.92</v>
+      </c>
+      <c r="I51" t="n">
+        <v>377.09</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O51" t="n">
+        <v>5407000000</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3792366469120</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>价格拉升但量未确认</t>
+        </is>
+      </c>
+      <c r="X51" t="n">
+        <v>-143531.3</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2111641.81</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TKO</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>202.81</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>200.36 - 200.78</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>196.69</v>
+      </c>
+      <c r="F52" t="n">
+        <v>196.69</v>
+      </c>
+      <c r="G52" t="n">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>196.69</v>
+      </c>
+      <c r="I52" t="n">
+        <v>243.37</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O52" t="n">
+        <v>78922362</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R52" t="n">
+        <v>17904197632</v>
+      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U52" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X52" t="n">
+        <v>-93846.55</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-66789.05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>NPKI</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12.26 - 12.33</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F53" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="G53" t="n">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>84494699</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1063788224</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U53" t="b">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X53" t="n">
+        <v>-186625.1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-117802.64</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SGI</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>89.23 - 89.36</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="G54" t="n">
+        <v>83.54000000000001</v>
+      </c>
+      <c r="H54" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>108.31</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
         <v>0.36</v>
       </c>
-      <c r="N21" t="n">
+      <c r="L54" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O54" t="n">
+        <v>209907662</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R54" t="n">
+        <v>18988247040</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U54" t="b">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X54" t="n">
+        <v>-379605.6</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-173122.91</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GCT</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>39.98 - 40.63</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="F55" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="G55" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="H55" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="I55" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O55" t="n">
+        <v>28980012</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1569130624</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U55" t="b">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X55" t="n">
+        <v>-27389.55</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-51804.77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>COMP</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.05 - 10.19</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>89.77</v>
+      </c>
+      <c r="H56" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="O56" t="n">
+        <v>552113490</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5945644544</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X56" t="n">
+        <v>-845139</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-1267536.71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PATH</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>16.78 - 17.16</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="G57" t="n">
+        <v>78.65000000000001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="I57" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O57" t="n">
+        <v>460443681</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R57" t="n">
+        <v>9005185024</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U57" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X57" t="n">
+        <v>-6745705.85</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-4960142.51</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>HOUS</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>14.12 - 14.31</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F58" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="G58" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="H58" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="I58" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="O58" t="n">
+        <v>112130696</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1618045952</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U58" t="b">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X58" t="n">
+        <v>-141620.75</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-88483.09</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>27.68 - 27.86</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="F59" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="G59" t="n">
+        <v>92.87</v>
+      </c>
+      <c r="H59" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="I59" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O59" t="n">
+        <v>147923716</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4103403776</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U59" t="b">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X59" t="n">
+        <v>-160016.95</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-53167.92</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>45.55</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>44.44 - 45.09</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>42.76</v>
+      </c>
+      <c r="F60" t="n">
+        <v>42.76</v>
+      </c>
+      <c r="G60" t="n">
+        <v>89.52</v>
+      </c>
+      <c r="H60" t="n">
+        <v>42.76</v>
+      </c>
+      <c r="I60" t="n">
+        <v>54.66</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
         <v>0.05</v>
       </c>
-      <c r="O21" t="n">
-        <v>1628041540</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R21" t="n">
-        <v>344705236992</v>
-      </c>
-      <c r="S21" t="inlineStr">
+      <c r="N60" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="O60" t="n">
+        <v>427912843</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R60" t="n">
+        <v>19645478912</v>
+      </c>
+      <c r="S60" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>资金分歧(内强外弱)</t>
-        </is>
-      </c>
-      <c r="U21" t="n">
-        <v>2228389.85</v>
-      </c>
-      <c r="V21" t="n">
-        <v>-3165179.71</v>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U60" t="b">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X60" t="n">
+        <v>-191736.75</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-1119017.08</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>133.12</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>130.94 - 131.79</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>127.66</v>
+      </c>
+      <c r="F61" t="n">
+        <v>123.21</v>
+      </c>
+      <c r="G61" t="n">
+        <v>87.92</v>
+      </c>
+      <c r="H61" t="n">
+        <v>127.66</v>
+      </c>
+      <c r="I61" t="n">
+        <v>159.74</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>198853187</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R61" t="n">
+        <v>27245268992</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>价格拉升但量未确认</t>
+        </is>
+      </c>
+      <c r="X61" t="n">
+        <v>-245501.85</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>203835.51</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>536.88</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>531.16 - 531.51</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>522.59</v>
+      </c>
+      <c r="F62" t="n">
+        <v>495.73</v>
+      </c>
+      <c r="G62" t="n">
+        <v>87.54000000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>522.59</v>
+      </c>
+      <c r="I62" t="n">
+        <v>644.25</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O62" t="n">
+        <v>138036253</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R62" t="n">
+        <v>75010277376</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U62" t="b">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X62" t="n">
+        <v>-4672.65</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-91056.14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>47.23 - 47.27</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="F63" t="n">
+        <v>44.34</v>
+      </c>
+      <c r="G63" t="n">
+        <v>83.95999999999999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="I63" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O63" t="n">
+        <v>213928111</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R63" t="n">
+        <v>10343579648</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U63" t="b">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X63" t="n">
+        <v>-1168845.4</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-1066547.89</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>156.23</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>154.80 - 154.67</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>152.65</v>
+      </c>
+      <c r="F64" t="n">
+        <v>144.19</v>
+      </c>
+      <c r="G64" t="n">
+        <v>83.04000000000001</v>
+      </c>
+      <c r="H64" t="n">
+        <v>152.65</v>
+      </c>
+      <c r="I64" t="n">
+        <v>187.48</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O64" t="n">
+        <v>134020931</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R64" t="n">
+        <v>21225021440</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U64" t="b">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>价格拉升但量未确认</t>
+        </is>
+      </c>
+      <c r="X64" t="n">
+        <v>-3170</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>31017.51</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CRH</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>128.32</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>126.91 - 127.04</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>124.78</v>
+      </c>
+      <c r="F65" t="n">
+        <v>120.23</v>
+      </c>
+      <c r="G65" t="n">
+        <v>80.31</v>
+      </c>
+      <c r="H65" t="n">
+        <v>124.78</v>
+      </c>
+      <c r="I65" t="n">
+        <v>153.99</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O65" t="n">
+        <v>668871202</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R65" t="n">
+        <v>85800140800</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>禁止交易</t>
+        </is>
+      </c>
+      <c r="U65" t="b">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>趋势结束(最弱)</t>
+        </is>
+      </c>
+      <c r="X65" t="n">
+        <v>-5263808.25</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-5872457.11</v>
       </c>
     </row>
   </sheetData>

--- a/swing_strategy_vix_sim_20260107.xlsx
+++ b/swing_strategy_vix_sim_20260107.xlsx
@@ -586,7 +586,7 @@
         <v>162.87</v>
       </c>
       <c r="G2" t="n">
-        <v>78.20999999999999</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>162.87</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>73.17</v>
+        <v>73.2</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>85.23</v>
       </c>
       <c r="G3" t="n">
-        <v>97.70999999999999</v>
+        <v>97.65000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>86.44</v>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>69.84999999999999</v>
+        <v>69.84</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>32.04</v>
       </c>
       <c r="G4" t="n">
-        <v>91.3</v>
+        <v>91.31</v>
       </c>
       <c r="H4" t="n">
         <v>32.04</v>
@@ -853,7 +853,7 @@
         <v>331.41</v>
       </c>
       <c r="G5" t="n">
-        <v>88.93000000000001</v>
+        <v>88.97</v>
       </c>
       <c r="H5" t="n">
         <v>331.41</v>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>67.73999999999999</v>
+        <v>67.75</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>199.98</v>
       </c>
       <c r="G6" t="n">
-        <v>65.88</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>199.98</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>62.21</v>
+        <v>62.28</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>22.44</v>
       </c>
       <c r="G7" t="n">
-        <v>86.95999999999999</v>
+        <v>87.03</v>
       </c>
       <c r="H7" t="n">
         <v>22.78</v>
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>59.27</v>
+        <v>59.29</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>38.99</v>
       </c>
       <c r="G8" t="n">
-        <v>78.61</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>38.99</v>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>57.27</v>
+        <v>57.29</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>12.51</v>
       </c>
       <c r="G9" t="n">
-        <v>93</v>
+        <v>92.98</v>
       </c>
       <c r="H9" t="n">
         <v>13.71</v>
@@ -1290,7 +1290,7 @@
         <v>95.47</v>
       </c>
       <c r="G10" t="n">
-        <v>92.34999999999999</v>
+        <v>92.34</v>
       </c>
       <c r="H10" t="n">
         <v>101.07</v>
@@ -1375,7 +1375,7 @@
         <v>60.05</v>
       </c>
       <c r="G11" t="n">
-        <v>88.73999999999999</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>61.17</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>51.7</v>
+        <v>51.71</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>101.63</v>
       </c>
       <c r="G12" t="n">
-        <v>84.86</v>
+        <v>84.97</v>
       </c>
       <c r="H12" t="n">
         <v>101.63</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>50.77</v>
+        <v>50.79</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>190.12</v>
       </c>
       <c r="G13" t="n">
-        <v>79.97</v>
+        <v>80.05</v>
       </c>
       <c r="H13" t="n">
         <v>198.89</v>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>49.59</v>
+        <v>49.61</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>27.56</v>
       </c>
       <c r="G14" t="n">
-        <v>96.44</v>
+        <v>96.39</v>
       </c>
       <c r="H14" t="n">
         <v>27.56</v>
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>45.54</v>
+        <v>45.53</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>102.64</v>
       </c>
       <c r="G15" t="n">
-        <v>83.33</v>
+        <v>83.44</v>
       </c>
       <c r="H15" t="n">
         <v>105.61</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>42.4</v>
+        <v>42.43</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>106.55</v>
       </c>
       <c r="G16" t="n">
-        <v>82.09</v>
+        <v>82.22</v>
       </c>
       <c r="H16" t="n">
         <v>106.55</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>42.1</v>
+        <v>42.13</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>190.55</v>
       </c>
       <c r="G17" t="n">
-        <v>79.12</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>203.42</v>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>41.39</v>
+        <v>41.41</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>183.07</v>
       </c>
       <c r="G18" t="n">
-        <v>91.05</v>
+        <v>91.06</v>
       </c>
       <c r="H18" t="n">
         <v>192.28</v>
@@ -2075,7 +2075,7 @@
         <v>43.2</v>
       </c>
       <c r="G19" t="n">
-        <v>96.79000000000001</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="H19" t="n">
         <v>45.62</v>
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>91.23</v>
+        <v>91.22</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>17.71</v>
       </c>
       <c r="G20" t="n">
-        <v>96.56</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>17.93</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>91.17</v>
+        <v>91.16</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>98.90000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>95.39</v>
+        <v>95.33</v>
       </c>
       <c r="H21" t="n">
         <v>102.05</v>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>90.89</v>
+        <v>90.88</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>21.25</v>
       </c>
       <c r="G23" t="n">
-        <v>88.66</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>21.25</v>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>89.28</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>69.39</v>
       </c>
       <c r="G24" t="n">
-        <v>86.59999999999999</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>71.8</v>
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>88.78</v>
+        <v>88.8</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>325.17</v>
       </c>
       <c r="G25" t="n">
-        <v>82.37</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>339.7</v>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>87.77</v>
+        <v>87.8</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="n">
-        <v>82.05</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>51.92</v>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>87.69</v>
+        <v>87.72</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>72.83</v>
       </c>
       <c r="G27" t="n">
-        <v>79.58</v>
+        <v>79.66</v>
       </c>
       <c r="H27" t="n">
         <v>74.01000000000001</v>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>87.09999999999999</v>
+        <v>87.12</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>181.87</v>
       </c>
       <c r="G28" t="n">
-        <v>74.75</v>
+        <v>74.91</v>
       </c>
       <c r="H28" t="n">
         <v>181.87</v>
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>85.94</v>
+        <v>85.98</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>112.16</v>
       </c>
       <c r="G29" t="n">
-        <v>91.56999999999999</v>
+        <v>91.58</v>
       </c>
       <c r="H29" t="n">
         <v>115.22</v>
@@ -3042,7 +3042,7 @@
         <v>122.2</v>
       </c>
       <c r="G30" t="n">
-        <v>90.65000000000001</v>
+        <v>90.67</v>
       </c>
       <c r="H30" t="n">
         <v>129.34</v>
@@ -3131,7 +3131,7 @@
         <v>177.17</v>
       </c>
       <c r="G31" t="n">
-        <v>85.18000000000001</v>
+        <v>85.28</v>
       </c>
       <c r="H31" t="n">
         <v>184.28</v>
@@ -3180,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>80.44</v>
+        <v>80.47</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>66.23999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>79.26000000000001</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>68.09</v>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>79.02</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>100.85</v>
       </c>
       <c r="G33" t="n">
-        <v>76.09999999999999</v>
+        <v>76.23</v>
       </c>
       <c r="H33" t="n">
         <v>106.16</v>
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>78.26000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>54.36</v>
       </c>
       <c r="G34" t="n">
-        <v>97.20999999999999</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>55.05</v>
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>75.33</v>
+        <v>75.31999999999999</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>15.75</v>
       </c>
       <c r="G35" t="n">
-        <v>96.77</v>
+        <v>96.72</v>
       </c>
       <c r="H35" t="n">
         <v>15.75</v>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>75.22</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>53.27</v>
       </c>
       <c r="G36" t="n">
-        <v>93.77</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="H36" t="n">
         <v>54.33</v>
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>74.51000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>36.73</v>
       </c>
       <c r="G37" t="n">
-        <v>93.5</v>
+        <v>93.48</v>
       </c>
       <c r="H37" t="n">
         <v>37.71</v>
@@ -3698,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>74.44</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>84.95</v>
       </c>
       <c r="G38" t="n">
-        <v>91.17</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>88.26000000000001</v>
@@ -3827,7 +3827,7 @@
         <v>145.27</v>
       </c>
       <c r="G39" t="n">
-        <v>90.14</v>
+        <v>90.17</v>
       </c>
       <c r="H39" t="n">
         <v>148.9</v>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>73.63</v>
+        <v>73.64</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43.91</v>
       </c>
       <c r="G40" t="n">
-        <v>82.7</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>45.04</v>
@@ -3965,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>71.84999999999999</v>
+        <v>71.88</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>8.5</v>
       </c>
       <c r="G41" t="n">
-        <v>77.86</v>
+        <v>77.97</v>
       </c>
       <c r="H41" t="n">
         <v>8.5</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>70.69</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>9.32</v>
       </c>
       <c r="G42" t="n">
-        <v>77.27</v>
+        <v>77.39</v>
       </c>
       <c r="H42" t="n">
         <v>9.800000000000001</v>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>70.54000000000001</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>20.46</v>
       </c>
       <c r="G43" t="n">
-        <v>92.41</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>20.46</v>
@@ -4264,7 +4264,7 @@
         <v>635.54</v>
       </c>
       <c r="G44" t="n">
-        <v>88.11</v>
+        <v>88.17</v>
       </c>
       <c r="H44" t="n">
         <v>635.54</v>
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>65.15000000000001</v>
+        <v>65.16</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>200.34</v>
       </c>
       <c r="G45" t="n">
-        <v>86.98</v>
+        <v>87.05</v>
       </c>
       <c r="H45" t="n">
         <v>204.41</v>
@@ -4398,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>64.87</v>
+        <v>64.89</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>70.97</v>
       </c>
       <c r="G46" t="n">
-        <v>85.47</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>73.84</v>
@@ -4487,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>64.51000000000001</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>108.2</v>
       </c>
       <c r="G47" t="n">
-        <v>80.20999999999999</v>
+        <v>80.28</v>
       </c>
       <c r="H47" t="n">
         <v>113.59</v>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>63.25</v>
+        <v>63.27</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>184.02</v>
       </c>
       <c r="G48" t="n">
-        <v>41.18</v>
+        <v>40.82</v>
       </c>
       <c r="H48" t="n">
         <v>184.02</v>
@@ -4665,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>61.88</v>
+        <v>61.8</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>350.57</v>
       </c>
       <c r="G49" t="n">
-        <v>83.45999999999999</v>
+        <v>83.56</v>
       </c>
       <c r="H49" t="n">
         <v>350.57</v>
@@ -4794,7 +4794,7 @@
         <v>405.68</v>
       </c>
       <c r="G50" t="n">
-        <v>90.08</v>
+        <v>90.11</v>
       </c>
       <c r="H50" t="n">
         <v>405.68</v>
@@ -4883,7 +4883,7 @@
         <v>304.92</v>
       </c>
       <c r="G51" t="n">
-        <v>89.39</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>304.92</v>
@@ -4972,7 +4972,7 @@
         <v>196.69</v>
       </c>
       <c r="G52" t="n">
-        <v>76.95999999999999</v>
+        <v>77.08</v>
       </c>
       <c r="H52" t="n">
         <v>196.69</v>
@@ -5057,7 +5057,7 @@
         <v>11.97</v>
       </c>
       <c r="G53" t="n">
-        <v>85.68000000000001</v>
+        <v>85.77</v>
       </c>
       <c r="H53" t="n">
         <v>11.97</v>
@@ -5142,7 +5142,7 @@
         <v>87.7</v>
       </c>
       <c r="G54" t="n">
-        <v>83.54000000000001</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>87.7</v>
@@ -5231,7 +5231,7 @@
         <v>38.38</v>
       </c>
       <c r="G55" t="n">
-        <v>93.75</v>
+        <v>93.72</v>
       </c>
       <c r="H55" t="n">
         <v>38.38</v>
@@ -5320,7 +5320,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>89.77</v>
+        <v>89.8</v>
       </c>
       <c r="H56" t="n">
         <v>9.699999999999999</v>
@@ -5405,7 +5405,7 @@
         <v>15.97</v>
       </c>
       <c r="G57" t="n">
-        <v>78.65000000000001</v>
+        <v>78.75</v>
       </c>
       <c r="H57" t="n">
         <v>15.97</v>
@@ -5486,7 +5486,7 @@
         <v>13.62</v>
       </c>
       <c r="G58" t="n">
-        <v>98.83</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>13.62</v>
@@ -5571,7 +5571,7 @@
         <v>26.99</v>
       </c>
       <c r="G59" t="n">
-        <v>92.87</v>
+        <v>92.86</v>
       </c>
       <c r="H59" t="n">
         <v>26.99</v>
@@ -5656,7 +5656,7 @@
         <v>42.76</v>
       </c>
       <c r="G60" t="n">
-        <v>89.52</v>
+        <v>89.55</v>
       </c>
       <c r="H60" t="n">
         <v>42.76</v>
@@ -5741,7 +5741,7 @@
         <v>123.21</v>
       </c>
       <c r="G61" t="n">
-        <v>87.92</v>
+        <v>87.98</v>
       </c>
       <c r="H61" t="n">
         <v>127.66</v>
@@ -5830,7 +5830,7 @@
         <v>495.73</v>
       </c>
       <c r="G62" t="n">
-        <v>87.54000000000001</v>
+        <v>87.61</v>
       </c>
       <c r="H62" t="n">
         <v>522.59</v>
@@ -5919,7 +5919,7 @@
         <v>44.34</v>
       </c>
       <c r="G63" t="n">
-        <v>83.95999999999999</v>
+        <v>84.06</v>
       </c>
       <c r="H63" t="n">
         <v>46.45</v>
@@ -6008,7 +6008,7 @@
         <v>144.19</v>
       </c>
       <c r="G64" t="n">
-        <v>83.04000000000001</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>152.65</v>
@@ -6097,7 +6097,7 @@
         <v>120.23</v>
       </c>
       <c r="G65" t="n">
-        <v>80.31</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H65" t="n">
         <v>124.78</v>
